--- a/clutch_poy_pivot_table.xlsx
+++ b/clutch_poy_pivot_table.xlsx
@@ -14,9 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>award</t>
+  </si>
+  <si>
+    <t>player_x</t>
+  </si>
+  <si>
+    <t>De'Aaron Fox</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
   </si>
 </sst>
 </file>
@@ -374,24 +383,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
     </row>

--- a/clutch_poy_pivot_table.xlsx
+++ b/clutch_poy_pivot_table.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>award</t>
+    <t>player_x</t>
   </si>
   <si>
-    <t>player_x</t>
+    <t>award</t>
   </si>
   <si>
     <t>De'Aaron Fox</t>
@@ -383,33 +383,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1</v>
       </c>
     </row>

--- a/clutch_poy_pivot_table.xlsx
+++ b/clutch_poy_pivot_table.xlsx
@@ -383,39 +383,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>1</v>
       </c>
     </row>

--- a/clutch_poy_pivot_table.xlsx
+++ b/clutch_poy_pivot_table.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>player_x</t>
+    <t>player</t>
   </si>
   <si>
     <t>award</t>
